--- a/biology/Médecine/Aimé_Steinlen/Aimé_Steinlen.xlsx
+++ b/biology/Médecine/Aimé_Steinlen/Aimé_Steinlen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aim%C3%A9_Steinlen</t>
+          <t>Aimé_Steinlen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aimé François Steinlen, né le 7 septembre 1821 à Vevey et mort le 15 mai 1862 à Lausanne, est un enseignant et journaliste suisse d'origine allemande. Il est le fondateur de l'Hospice de l'enfance de Lausanne.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aim%C3%A9_Steinlen</t>
+          <t>Aimé_Steinlen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Aimé Steinlen est le fils de Françoise Charlotte Weibel, originaire de Vevey, et de Christian Gottlieb Steinlen, originaire de Stuttgart (de nationalité suisse dès 1832), enseignant en dessin à Vevey. Ce dernier concevra les costumes de la Fête des vignerons de 1833.
 Aimé Steinlen est l'aîné de neuf enfants. Il étudie la théologie à Lausanne et entre à la Société de Belles-Lettres en 1837, puis à celle de Zofingue en 1839. Il en assume la présidence centrale en 1843 et écrit les paroles de plusieurs chants pour la société. Il paie ses études en donnant des leçons particulières, ce qui lui permet de faire en 1842 une année de stages à Tübingen, en Allemagne, où il étudie l'exégèse et l'hébreu.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aim%C3%A9_Steinlen</t>
+          <t>Aimé_Steinlen</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Toponyme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sur décision municipale de 1932, un chemin de Lausanne porte le nom d'Aimé Steinlen : il joint l'avenue d'Échallens et le chemin de la Vallombreuse.
 </t>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Aim%C3%A9_Steinlen</t>
+          <t>Aimé_Steinlen</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Daniel Maggetti, « Steinlen, Aimé » dans le Dictionnaire historique de la Suisse en ligne, version du 17 septembre 2010.
 Louis Polla, Rues de Lausanne, Lausanne, Éditions 24 heures, 1981, 191 p. (ISBN 2826500503), p. 88-90
